--- a/Code/Results/Cases/Case_4_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_211/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.978867762595314</v>
+        <v>0.7598684979915902</v>
       </c>
       <c r="C2">
-        <v>0.415815186210466</v>
+        <v>0.126138888061746</v>
       </c>
       <c r="D2">
-        <v>0.3917359482284297</v>
+        <v>0.6026544702145884</v>
       </c>
       <c r="E2">
-        <v>0.1275076176274403</v>
+        <v>0.2310343479695582</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4851474592023663</v>
+        <v>0.6688545619091002</v>
       </c>
       <c r="H2">
-        <v>0.3516475406269706</v>
+        <v>0.7666454822131499</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04760780400784625</v>
+        <v>0.1103907924338472</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6427820220773839</v>
+        <v>0.3881540985016514</v>
       </c>
       <c r="N2">
-        <v>0.7101926353021852</v>
+        <v>1.245465653723244</v>
       </c>
       <c r="O2">
-        <v>1.714115281792772</v>
+        <v>2.864803467933086</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.719599029521447</v>
+        <v>0.6830668096117449</v>
       </c>
       <c r="C3">
-        <v>0.3646714788408758</v>
+        <v>0.1100499609132441</v>
       </c>
       <c r="D3">
-        <v>0.3611918889295112</v>
+        <v>0.5985411035631074</v>
       </c>
       <c r="E3">
-        <v>0.1198518103703741</v>
+        <v>0.2306167796436718</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4504505230254523</v>
+        <v>0.6663194885166064</v>
       </c>
       <c r="H3">
-        <v>0.3418402696862302</v>
+        <v>0.769877040480651</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04652776465535879</v>
+        <v>0.1108896302811608</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5609935569617335</v>
+        <v>0.3660828348957423</v>
       </c>
       <c r="N3">
-        <v>0.7357795333849282</v>
+        <v>1.25709921233765</v>
       </c>
       <c r="O3">
-        <v>1.61960621629197</v>
+        <v>2.865872919563913</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.560730837746377</v>
+        <v>0.6359712845096794</v>
       </c>
       <c r="C4">
-        <v>0.3332505422711165</v>
+        <v>0.1001338299085717</v>
       </c>
       <c r="D4">
-        <v>0.3429495413548977</v>
+        <v>0.5963047227232607</v>
       </c>
       <c r="E4">
-        <v>0.1153411550797756</v>
+        <v>0.2304693245033569</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4302601655288925</v>
+        <v>0.6652471898419634</v>
       </c>
       <c r="H4">
-        <v>0.3364951007876016</v>
+        <v>0.7722405516814632</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04594814486080523</v>
+        <v>0.1112448835794133</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5110663901466808</v>
+        <v>0.3526610250504802</v>
       </c>
       <c r="N4">
-        <v>0.752513743222103</v>
+        <v>1.264733556251187</v>
       </c>
       <c r="O4">
-        <v>1.565342947586288</v>
+        <v>2.868338661141337</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.496048998623706</v>
+        <v>0.6167959028718428</v>
       </c>
       <c r="C5">
-        <v>0.3204380881844031</v>
+        <v>0.0960837463780706</v>
       </c>
       <c r="D5">
-        <v>0.33563654514559</v>
+        <v>0.5954662074588839</v>
       </c>
       <c r="E5">
-        <v>0.1135482000305679</v>
+        <v>0.2304366493051475</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4222944937402815</v>
+        <v>0.6649318155363204</v>
       </c>
       <c r="H5">
-        <v>0.3344788974514472</v>
+        <v>0.7732991052117484</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04573198433457293</v>
+        <v>0.1114019670293054</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4907842357074159</v>
+        <v>0.3472245294209699</v>
       </c>
       <c r="N5">
-        <v>0.7595830517768185</v>
+        <v>1.267968216742688</v>
       </c>
       <c r="O5">
-        <v>1.544121978848352</v>
+        <v>2.869798052373909</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.485311494450514</v>
+        <v>0.6136128694565173</v>
       </c>
       <c r="C6">
-        <v>0.3183099984427997</v>
+        <v>0.09541068577860301</v>
       </c>
       <c r="D6">
-        <v>0.3344293100263087</v>
+        <v>0.5953313741008657</v>
       </c>
       <c r="E6">
-        <v>0.1132531357155493</v>
+        <v>0.230432879994666</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4209871193569938</v>
+        <v>0.6648867869616026</v>
       </c>
       <c r="H6">
-        <v>0.334153662960972</v>
+        <v>0.7734806399636796</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0456972741007533</v>
+        <v>0.1114287944711663</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4874199667358141</v>
+        <v>0.3463238055566649</v>
       </c>
       <c r="N6">
-        <v>0.7607717930615046</v>
+        <v>1.26851279695321</v>
       </c>
       <c r="O6">
-        <v>1.540650553373098</v>
+        <v>2.870067829177742</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.559858309693595</v>
+        <v>0.6357126106570661</v>
       </c>
       <c r="C7">
-        <v>0.3330777865802759</v>
+        <v>0.1000792459127524</v>
       </c>
       <c r="D7">
-        <v>0.3428504361848184</v>
+        <v>0.5962931192067771</v>
       </c>
       <c r="E7">
-        <v>0.1153167951110525</v>
+        <v>0.2304687728069013</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4301516997177401</v>
+        <v>0.6652424444846758</v>
       </c>
       <c r="H7">
-        <v>0.3364672640791611</v>
+        <v>0.7722544413944803</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04594514974481356</v>
+        <v>0.1112469521965949</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5107926129051492</v>
+        <v>0.3525875725484724</v>
       </c>
       <c r="N7">
-        <v>0.752608079772223</v>
+        <v>1.264776679462649</v>
       </c>
       <c r="O7">
-        <v>1.565053214352758</v>
+        <v>2.868356502861445</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.889390214974526</v>
+        <v>0.7333752357078538</v>
       </c>
       <c r="C8">
-        <v>0.3981824676574774</v>
+        <v>0.1205993415152875</v>
       </c>
       <c r="D8">
-        <v>0.3810932994840499</v>
+        <v>0.6011762035574719</v>
       </c>
       <c r="E8">
-        <v>0.1248268343811212</v>
+        <v>0.2308677735849898</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4729416844623415</v>
+        <v>0.6678798570898152</v>
       </c>
       <c r="H8">
-        <v>0.3481205547786175</v>
+        <v>0.7676810062564243</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04721747332901671</v>
+        <v>0.1105526302825623</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6145148843109709</v>
+        <v>0.3805171118537274</v>
       </c>
       <c r="N8">
-        <v>0.7187979170033856</v>
+        <v>1.249374975063674</v>
       </c>
       <c r="O8">
-        <v>1.680712880892628</v>
+        <v>2.864796530407517</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.539319234572361</v>
+        <v>0.9253375082166144</v>
       </c>
       <c r="C9">
-        <v>0.5258829545722108</v>
+        <v>0.1605332070531915</v>
       </c>
       <c r="D9">
-        <v>0.4605246562802563</v>
+        <v>0.6130439380945631</v>
       </c>
       <c r="E9">
-        <v>0.1451096980127957</v>
+        <v>0.2325139156336462</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5665518025700038</v>
+        <v>0.6769031894488506</v>
       </c>
       <c r="H9">
-        <v>0.3767300529097355</v>
+        <v>0.7617219289796253</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0504215246342099</v>
+        <v>0.1095795453920729</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8206996675603548</v>
+        <v>0.4363083525099114</v>
       </c>
       <c r="N9">
-        <v>0.6609733496433989</v>
+        <v>1.223067626624392</v>
       </c>
       <c r="O9">
-        <v>1.940044462842479</v>
+        <v>2.872188738342459</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.020842218401242</v>
+        <v>1.06660715973544</v>
       </c>
       <c r="C10">
-        <v>0.6199979604005534</v>
+        <v>0.189677145595283</v>
       </c>
       <c r="D10">
-        <v>0.5221492836886341</v>
+        <v>0.6231582072106789</v>
       </c>
       <c r="E10">
-        <v>0.161194879829555</v>
+        <v>0.2342494923505356</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6425201531677232</v>
+        <v>0.6858950695130233</v>
       </c>
       <c r="H10">
-        <v>0.4018373995857161</v>
+        <v>0.7591787938745398</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05327649287187697</v>
+        <v>0.1091014917759239</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9746010233139231</v>
+        <v>0.4779115540984833</v>
       </c>
       <c r="N10">
-        <v>0.6241780540494588</v>
+        <v>1.206110483037698</v>
       </c>
       <c r="O10">
-        <v>2.154327884022109</v>
+        <v>2.886414262141869</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.241196788718639</v>
+        <v>1.130918428076882</v>
       </c>
       <c r="C11">
-        <v>0.6629444141879333</v>
+        <v>0.2028913110076189</v>
       </c>
       <c r="D11">
-        <v>0.5510275929889588</v>
+        <v>0.6280620178646643</v>
       </c>
       <c r="E11">
-        <v>0.1688142714091754</v>
+        <v>0.2351532546132589</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6789483199903401</v>
+        <v>0.6905019327406166</v>
       </c>
       <c r="H11">
-        <v>0.4142854681826975</v>
+        <v>0.7584204609402292</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05470053305432288</v>
+        <v>0.1089354658488269</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.045313227834747</v>
+        <v>0.4969694107164244</v>
       </c>
       <c r="N11">
-        <v>0.6087982867716732</v>
+        <v>1.198910325060929</v>
       </c>
       <c r="O11">
-        <v>2.257908051766833</v>
+        <v>2.894802758947208</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.324864763177288</v>
+        <v>1.155277284821409</v>
       </c>
       <c r="C12">
-        <v>0.6792322123903602</v>
+        <v>0.207888700609459</v>
       </c>
       <c r="D12">
-        <v>0.5620965586710156</v>
+        <v>0.6299624366196781</v>
       </c>
       <c r="E12">
-        <v>0.1717470046388314</v>
+        <v>0.2355119005966202</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6930391171712387</v>
+        <v>0.6923209143996871</v>
       </c>
       <c r="H12">
-        <v>0.4191593158502371</v>
+        <v>0.7581906128366285</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05525928127734403</v>
+        <v>0.1088799941015068</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.072206405139795</v>
+        <v>0.5042049138018569</v>
       </c>
       <c r="N12">
-        <v>0.6031809972835447</v>
+        <v>1.196257649939454</v>
       </c>
       <c r="O12">
-        <v>2.298093033424664</v>
+        <v>2.898255444685077</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.306834771395415</v>
+        <v>1.15003094003572</v>
       </c>
       <c r="C13">
-        <v>0.67572313837411</v>
+        <v>0.2068127178841053</v>
       </c>
       <c r="D13">
-        <v>0.5597065282370579</v>
+        <v>0.629551216282124</v>
       </c>
       <c r="E13">
-        <v>0.1711132117018366</v>
+        <v>0.2354339301562902</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.689990778455666</v>
+        <v>0.6919258491859637</v>
       </c>
       <c r="H13">
-        <v>0.4181023202632161</v>
+        <v>0.758237565507585</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.055138053070376</v>
+        <v>0.1088916118565741</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.066409065774614</v>
+        <v>0.5026457919605107</v>
       </c>
       <c r="N13">
-        <v>0.6043813992568587</v>
+        <v>1.196825665711593</v>
       </c>
       <c r="O13">
-        <v>2.289394312935286</v>
+        <v>2.897499558329343</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.24807548489656</v>
+        <v>1.132922340913694</v>
       </c>
       <c r="C14">
-        <v>0.6642838870489811</v>
+        <v>0.2033025816008944</v>
       </c>
       <c r="D14">
-        <v>0.5519354991905061</v>
+        <v>0.6282174961147575</v>
       </c>
       <c r="E14">
-        <v>0.1690545745719874</v>
+        <v>0.2351824318320794</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6801014770916396</v>
+        <v>0.6906500879556887</v>
       </c>
       <c r="H14">
-        <v>0.4146831607947377</v>
+        <v>0.7584004024689506</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05474610203322072</v>
+        <v>0.1089307538671065</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.047523330134688</v>
+        <v>0.4975643068693358</v>
       </c>
       <c r="N14">
-        <v>0.6083319387535155</v>
+        <v>1.198690607464769</v>
       </c>
       <c r="O14">
-        <v>2.261194322111237</v>
+        <v>2.895081276580129</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.212114092378272</v>
+        <v>1.122443520938475</v>
       </c>
       <c r="C15">
-        <v>0.6572804391868488</v>
+        <v>0.2011516637954571</v>
       </c>
       <c r="D15">
-        <v>0.5471932567085673</v>
+        <v>0.6274062101594211</v>
       </c>
       <c r="E15">
-        <v>0.167799900707486</v>
+        <v>0.2350305185265391</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6740834213149469</v>
+        <v>0.6898783506003241</v>
       </c>
       <c r="H15">
-        <v>0.4126100524369463</v>
+        <v>0.7585076092103833</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05450860530144652</v>
+        <v>0.1089556930413558</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.035970846927611</v>
+        <v>0.4944541769946866</v>
       </c>
       <c r="N15">
-        <v>0.6107790259672541</v>
+        <v>1.199842557899778</v>
       </c>
       <c r="O15">
-        <v>2.244048820896836</v>
+        <v>2.893635984568448</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.006470889002969</v>
+        <v>1.06240511161559</v>
       </c>
       <c r="C16">
-        <v>0.6171944682920696</v>
+        <v>0.1888126696821359</v>
       </c>
       <c r="D16">
-        <v>0.5202800158306786</v>
+        <v>0.6228438168858474</v>
       </c>
       <c r="E16">
-        <v>0.160703348798279</v>
+        <v>0.2341927267268709</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6401794047578022</v>
+        <v>0.6856044090774418</v>
       </c>
       <c r="H16">
-        <v>0.4010455866654752</v>
+        <v>0.7592363730052085</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0531860736018146</v>
+        <v>0.1091133772291784</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9699951979565427</v>
+        <v>0.4766687137572561</v>
       </c>
       <c r="N16">
-        <v>0.6252114469348271</v>
+        <v>1.206591367313543</v>
       </c>
       <c r="O16">
-        <v>2.147688495401525</v>
+        <v>2.885904672133989</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.880675341419021</v>
+        <v>1.025584686527054</v>
       </c>
       <c r="C17">
-        <v>0.5926410549750756</v>
+        <v>0.1812317517316728</v>
       </c>
       <c r="D17">
-        <v>0.5039942008841933</v>
+        <v>0.6201224232980849</v>
       </c>
       <c r="E17">
-        <v>0.1564299774966464</v>
+        <v>0.2337080162171681</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6198781224891974</v>
+        <v>0.683114894656029</v>
       </c>
       <c r="H17">
-        <v>0.3942226405315097</v>
+        <v>0.7597855280345129</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05240785207242737</v>
+        <v>0.1092232880136734</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9297113682053677</v>
+        <v>0.4657915747336361</v>
       </c>
       <c r="N17">
-        <v>0.6344210528305894</v>
+        <v>1.210863116947777</v>
       </c>
       <c r="O17">
-        <v>2.090195142802884</v>
+        <v>2.881653131290506</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.808441771383286</v>
+        <v>1.004411045850361</v>
       </c>
       <c r="C18">
-        <v>0.5785307309567713</v>
+        <v>0.1768673240717646</v>
       </c>
       <c r="D18">
-        <v>0.4947058007630289</v>
+        <v>0.6185856538757548</v>
       </c>
       <c r="E18">
-        <v>0.1540002326602874</v>
+        <v>0.2334399773290379</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6083755992553961</v>
+        <v>0.6817315868409821</v>
       </c>
       <c r="H18">
-        <v>0.3903940956310663</v>
+        <v>0.7601389007636499</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05197193873861394</v>
+        <v>0.1092913477771518</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9066062504849555</v>
+        <v>0.4595478090476277</v>
       </c>
       <c r="N18">
-        <v>0.6398453279790957</v>
+        <v>1.213368469252771</v>
       </c>
       <c r="O18">
-        <v>2.057695405292634</v>
+        <v>2.879388189907814</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.784004391665121</v>
+        <v>0.9972428228508079</v>
       </c>
       <c r="C19">
-        <v>0.5737551367153912</v>
+        <v>0.1753889104659265</v>
       </c>
       <c r="D19">
-        <v>0.4915740893730458</v>
+        <v>0.6180702284347888</v>
       </c>
       <c r="E19">
-        <v>0.1531822870480291</v>
+        <v>0.2333510714486877</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6045101670158033</v>
+        <v>0.6812715626264634</v>
       </c>
       <c r="H19">
-        <v>0.3891139124904583</v>
+        <v>0.7602649895010671</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05182631209768473</v>
+        <v>0.1093152232237848</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8987939906883966</v>
+        <v>0.4574359301323909</v>
       </c>
       <c r="N19">
-        <v>0.6417034006770734</v>
+        <v>1.214225043741024</v>
       </c>
       <c r="O19">
-        <v>2.046786806047919</v>
+        <v>2.878652295462729</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.894053744981647</v>
+        <v>1.029503827100712</v>
       </c>
       <c r="C20">
-        <v>0.5952535100553007</v>
+        <v>0.1820391780028672</v>
       </c>
       <c r="D20">
-        <v>0.5057196181034271</v>
+        <v>0.6204091708467843</v>
       </c>
       <c r="E20">
-        <v>0.1568819401751256</v>
+        <v>0.2337585016242478</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6220210039749787</v>
+        <v>0.6833748768374051</v>
       </c>
       <c r="H20">
-        <v>0.3949389494877522</v>
+        <v>0.759723187025088</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05248947392402314</v>
+        <v>0.1092110866872851</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.933992809994983</v>
+        <v>0.4669481757899163</v>
       </c>
       <c r="N20">
-        <v>0.6334274351179019</v>
+        <v>1.21040337740834</v>
       </c>
       <c r="O20">
-        <v>2.096255938769104</v>
+        <v>2.882087037734181</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.265328113897397</v>
+        <v>1.137947409300637</v>
       </c>
       <c r="C21">
-        <v>0.6676431478857978</v>
+        <v>0.2043337729876953</v>
       </c>
       <c r="D21">
-        <v>0.554214319915701</v>
+        <v>0.6286080634743314</v>
       </c>
       <c r="E21">
-        <v>0.1696579255743842</v>
+        <v>0.2352558577339963</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6829979363100733</v>
+        <v>0.6910227874472383</v>
       </c>
       <c r="H21">
-        <v>0.4156830039405008</v>
+        <v>0.7583510177225321</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05486068612998451</v>
+        <v>0.1089190561023656</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.053067253975918</v>
+        <v>0.4990563571242745</v>
       </c>
       <c r="N21">
-        <v>0.6071658656175885</v>
+        <v>1.198140824118973</v>
       </c>
       <c r="O21">
-        <v>2.269450549030012</v>
+        <v>2.895784086513657</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.509304921515479</v>
+        <v>1.208853508216805</v>
       </c>
       <c r="C22">
-        <v>0.7151022021490974</v>
+        <v>0.2188664069418564</v>
       </c>
       <c r="D22">
-        <v>0.5866920005777274</v>
+        <v>0.6342197453884921</v>
       </c>
       <c r="E22">
-        <v>0.1782863287245249</v>
+        <v>0.2363301136789246</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7245908318621872</v>
+        <v>0.69645525748426</v>
       </c>
       <c r="H22">
-        <v>0.4301796984308055</v>
+        <v>0.7577883104838037</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05652481129891385</v>
+        <v>0.1087713229542331</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.131573316128012</v>
+        <v>0.5201497941201012</v>
       </c>
       <c r="N22">
-        <v>0.5912130329298151</v>
+        <v>1.190557099018257</v>
       </c>
       <c r="O22">
-        <v>2.388290812858941</v>
+        <v>2.906345685766155</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.37895560013169</v>
+        <v>1.171007055629843</v>
       </c>
       <c r="C23">
-        <v>0.6897568036836503</v>
+        <v>0.2111136466679682</v>
       </c>
       <c r="D23">
-        <v>0.5692821922190774</v>
+        <v>0.6312015432050089</v>
       </c>
       <c r="E23">
-        <v>0.1736543030360878</v>
+        <v>0.235748016840958</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7022230312245625</v>
+        <v>0.6935160572231212</v>
       </c>
       <c r="H23">
-        <v>0.4223522470825145</v>
+        <v>0.7580580674632103</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05562565071173609</v>
+        <v>0.108846224485788</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.089605256808042</v>
+        <v>0.5088819743581681</v>
       </c>
       <c r="N23">
-        <v>0.599612631734324</v>
+        <v>1.194565280040223</v>
       </c>
       <c r="O23">
-        <v>2.324317320877128</v>
+        <v>2.900561318175761</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.888005097458972</v>
+        <v>1.027731999405148</v>
       </c>
       <c r="C24">
-        <v>0.5940724016012098</v>
+        <v>0.1816741594348628</v>
       </c>
       <c r="D24">
-        <v>0.5049393257155543</v>
+        <v>0.6202794456924892</v>
       </c>
       <c r="E24">
-        <v>0.1566775238187752</v>
+        <v>0.233735644066666</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6210516830448256</v>
+        <v>0.6832571895554764</v>
       </c>
       <c r="H24">
-        <v>0.3946148141669283</v>
+        <v>0.759751254096841</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05245253698591412</v>
+        <v>0.109216587735915</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9320570012447931</v>
+        <v>0.4664252463808012</v>
       </c>
       <c r="N24">
-        <v>0.6338762470138377</v>
+        <v>1.210611071565459</v>
       </c>
       <c r="O24">
-        <v>2.093514133738438</v>
+        <v>2.88189031006857</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.362924785198743</v>
+        <v>0.8733626994046517</v>
       </c>
       <c r="C25">
-        <v>0.4913062713231682</v>
+        <v>0.1497637225193671</v>
       </c>
       <c r="D25">
-        <v>0.4385056542899122</v>
+        <v>0.6095882562475907</v>
       </c>
       <c r="E25">
-        <v>0.1394291608551015</v>
+        <v>0.2319761649496108</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5400624758086536</v>
+        <v>0.674048318034778</v>
       </c>
       <c r="H25">
-        <v>0.3683167484225436</v>
+        <v>0.7630118013194789</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04947202806825857</v>
+        <v>0.1098011970450123</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7645518337199775</v>
+        <v>0.4211069543555226</v>
       </c>
       <c r="N25">
-        <v>0.6756572879825455</v>
+        <v>1.229767852702665</v>
       </c>
       <c r="O25">
-        <v>1.866017311776488</v>
+        <v>2.868646868223635</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_211/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7598684979915902</v>
+        <v>1.978867762595257</v>
       </c>
       <c r="C2">
-        <v>0.126138888061746</v>
+        <v>0.4158151862102386</v>
       </c>
       <c r="D2">
-        <v>0.6026544702145884</v>
+        <v>0.3917359482282734</v>
       </c>
       <c r="E2">
-        <v>0.2310343479695582</v>
+        <v>0.1275076176274368</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6688545619091002</v>
+        <v>0.4851474592023095</v>
       </c>
       <c r="H2">
-        <v>0.7666454822131499</v>
+        <v>0.3516475406270843</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1103907924338472</v>
+        <v>0.04760780400784625</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3881540985016514</v>
+        <v>0.6427820220773981</v>
       </c>
       <c r="N2">
-        <v>1.245465653723244</v>
+        <v>0.7101926353021355</v>
       </c>
       <c r="O2">
-        <v>2.864803467933086</v>
+        <v>1.7141152817928</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6830668096117449</v>
+        <v>1.719599029521333</v>
       </c>
       <c r="C3">
-        <v>0.1100499609132441</v>
+        <v>0.3646714788410179</v>
       </c>
       <c r="D3">
-        <v>0.5985411035631074</v>
+        <v>0.3611918889293833</v>
       </c>
       <c r="E3">
-        <v>0.2306167796436718</v>
+        <v>0.1198518103703918</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6663194885166064</v>
+        <v>0.4504505230254949</v>
       </c>
       <c r="H3">
-        <v>0.769877040480651</v>
+        <v>0.3418402696862159</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1108896302811608</v>
+        <v>0.04652776465536945</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3660828348957423</v>
+        <v>0.5609935569617406</v>
       </c>
       <c r="N3">
-        <v>1.25709921233765</v>
+        <v>0.7357795333848713</v>
       </c>
       <c r="O3">
-        <v>2.865872919563913</v>
+        <v>1.619606216292055</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6359712845096794</v>
+        <v>1.560730837746377</v>
       </c>
       <c r="C4">
-        <v>0.1001338299085717</v>
+        <v>0.3332505422713723</v>
       </c>
       <c r="D4">
-        <v>0.5963047227232607</v>
+        <v>0.3429495413550114</v>
       </c>
       <c r="E4">
-        <v>0.2304693245033569</v>
+        <v>0.1153411550797614</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.6652471898419634</v>
+        <v>0.4302601655288356</v>
       </c>
       <c r="H4">
-        <v>0.7722405516814632</v>
+        <v>0.3364951007876016</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1112448835794133</v>
+        <v>0.04594814486080523</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3526610250504802</v>
+        <v>0.5110663901466879</v>
       </c>
       <c r="N4">
-        <v>1.264733556251187</v>
+        <v>0.752513743222103</v>
       </c>
       <c r="O4">
-        <v>2.868338661141337</v>
+        <v>1.565342947586288</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6167959028718428</v>
+        <v>1.496048998623706</v>
       </c>
       <c r="C5">
-        <v>0.0960837463780706</v>
+        <v>0.3204380881846873</v>
       </c>
       <c r="D5">
-        <v>0.5954662074588839</v>
+        <v>0.3356365451457037</v>
       </c>
       <c r="E5">
-        <v>0.2304366493051475</v>
+        <v>0.1135482000305821</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6649318155363204</v>
+        <v>0.4222944937402247</v>
       </c>
       <c r="H5">
-        <v>0.7732991052117484</v>
+        <v>0.334478897451433</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1114019670293054</v>
+        <v>0.04573198433459424</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3472245294209699</v>
+        <v>0.4907842357074088</v>
       </c>
       <c r="N5">
-        <v>1.267968216742688</v>
+        <v>0.7595830517768256</v>
       </c>
       <c r="O5">
-        <v>2.869798052373909</v>
+        <v>1.544121978848352</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6136128694565173</v>
+        <v>1.4853114944504</v>
       </c>
       <c r="C6">
-        <v>0.09541068577860301</v>
+        <v>0.3183099984427145</v>
       </c>
       <c r="D6">
-        <v>0.5953313741008657</v>
+        <v>0.3344293100261524</v>
       </c>
       <c r="E6">
-        <v>0.230432879994666</v>
+        <v>0.1132531357155528</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6648867869616026</v>
+        <v>0.4209871193569796</v>
       </c>
       <c r="H6">
-        <v>0.7734806399636796</v>
+        <v>0.334153662960972</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1114287944711663</v>
+        <v>0.04569727410081725</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3463238055566649</v>
+        <v>0.4874199667358212</v>
       </c>
       <c r="N6">
-        <v>1.26851279695321</v>
+        <v>0.7607717930615507</v>
       </c>
       <c r="O6">
-        <v>2.870067829177742</v>
+        <v>1.540650553373126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6357126106570661</v>
+        <v>1.559858309693595</v>
       </c>
       <c r="C7">
-        <v>0.1000792459127524</v>
+        <v>0.333077786579878</v>
       </c>
       <c r="D7">
-        <v>0.5962931192067771</v>
+        <v>0.3428504361849463</v>
       </c>
       <c r="E7">
-        <v>0.2304687728069013</v>
+        <v>0.1153167951110632</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.6652424444846758</v>
+        <v>0.4301516997177259</v>
       </c>
       <c r="H7">
-        <v>0.7722544413944803</v>
+        <v>0.3364672640791753</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1112469521965949</v>
+        <v>0.04594514974484198</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3525875725484724</v>
+        <v>0.5107926129051634</v>
       </c>
       <c r="N7">
-        <v>1.264776679462649</v>
+        <v>0.7526080797722372</v>
       </c>
       <c r="O7">
-        <v>2.868356502861445</v>
+        <v>1.565053214352702</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7333752357078538</v>
+        <v>1.889390214974412</v>
       </c>
       <c r="C8">
-        <v>0.1205993415152875</v>
+        <v>0.3981824676569943</v>
       </c>
       <c r="D8">
-        <v>0.6011762035574719</v>
+        <v>0.3810932994841778</v>
       </c>
       <c r="E8">
-        <v>0.2308677735849898</v>
+        <v>0.1248268343811354</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.6678798570898152</v>
+        <v>0.4729416844623131</v>
       </c>
       <c r="H8">
-        <v>0.7676810062564243</v>
+        <v>0.3481205547786175</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1105526302825623</v>
+        <v>0.0472174733290025</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3805171118537274</v>
+        <v>0.6145148843109709</v>
       </c>
       <c r="N8">
-        <v>1.249374975063674</v>
+        <v>0.7187979170034424</v>
       </c>
       <c r="O8">
-        <v>2.864796530407517</v>
+        <v>1.680712880892628</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9253375082166144</v>
+        <v>2.539319234572361</v>
       </c>
       <c r="C9">
-        <v>0.1605332070531915</v>
+        <v>0.5258829545720118</v>
       </c>
       <c r="D9">
-        <v>0.6130439380945631</v>
+        <v>0.46052465628037</v>
       </c>
       <c r="E9">
-        <v>0.2325139156336462</v>
+        <v>0.1451096980127851</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6769031894488506</v>
+        <v>0.5665518025699896</v>
       </c>
       <c r="H9">
-        <v>0.7617219289796253</v>
+        <v>0.3767300529098492</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1095795453920729</v>
+        <v>0.05042152463422056</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4363083525099114</v>
+        <v>0.8206996675603548</v>
       </c>
       <c r="N9">
-        <v>1.223067626624392</v>
+        <v>0.6609733496433847</v>
       </c>
       <c r="O9">
-        <v>2.872188738342459</v>
+        <v>1.940044462842536</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.06660715973544</v>
+        <v>3.020842218401242</v>
       </c>
       <c r="C10">
-        <v>0.189677145595283</v>
+        <v>0.6199979604005534</v>
       </c>
       <c r="D10">
-        <v>0.6231582072106789</v>
+        <v>0.5221492836887478</v>
       </c>
       <c r="E10">
-        <v>0.2342494923505356</v>
+        <v>0.1611948798295408</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6858950695130233</v>
+        <v>0.6425201531677089</v>
       </c>
       <c r="H10">
-        <v>0.7591787938745398</v>
+        <v>0.4018373995858013</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1091014917759239</v>
+        <v>0.05327649287187697</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4779115540984833</v>
+        <v>0.9746010233139302</v>
       </c>
       <c r="N10">
-        <v>1.206110483037698</v>
+        <v>0.6241780540495085</v>
       </c>
       <c r="O10">
-        <v>2.886414262141869</v>
+        <v>2.154327884022166</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.130918428076882</v>
+        <v>3.241196788718639</v>
       </c>
       <c r="C11">
-        <v>0.2028913110076189</v>
+        <v>0.6629444141880469</v>
       </c>
       <c r="D11">
-        <v>0.6280620178646643</v>
+        <v>0.5510275929889588</v>
       </c>
       <c r="E11">
-        <v>0.2351532546132589</v>
+        <v>0.1688142714091896</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6905019327406166</v>
+        <v>0.6789483199904396</v>
       </c>
       <c r="H11">
-        <v>0.7584204609402292</v>
+        <v>0.4142854681826833</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1089354658488269</v>
+        <v>0.0547005330543513</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4969694107164244</v>
+        <v>1.045313227834747</v>
       </c>
       <c r="N11">
-        <v>1.198910325060929</v>
+        <v>0.6087982867716448</v>
       </c>
       <c r="O11">
-        <v>2.894802758947208</v>
+        <v>2.257908051766776</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.155277284821409</v>
+        <v>3.324864763177345</v>
       </c>
       <c r="C12">
-        <v>0.207888700609459</v>
+        <v>0.6792322123903318</v>
       </c>
       <c r="D12">
-        <v>0.6299624366196781</v>
+        <v>0.5620965586711577</v>
       </c>
       <c r="E12">
-        <v>0.2355119005966202</v>
+        <v>0.1717470046388385</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6923209143996871</v>
+        <v>0.6930391171712671</v>
       </c>
       <c r="H12">
-        <v>0.7581906128366285</v>
+        <v>0.4191593158501234</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1088799941015068</v>
+        <v>0.05525928127734048</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5042049138018569</v>
+        <v>1.072206405139809</v>
       </c>
       <c r="N12">
-        <v>1.196257649939454</v>
+        <v>0.6031809972834878</v>
       </c>
       <c r="O12">
-        <v>2.898255444685077</v>
+        <v>2.298093033424664</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.15003094003572</v>
+        <v>3.306834771395529</v>
       </c>
       <c r="C13">
-        <v>0.2068127178841053</v>
+        <v>0.6757231383740816</v>
       </c>
       <c r="D13">
-        <v>0.629551216282124</v>
+        <v>0.5597065282369158</v>
       </c>
       <c r="E13">
-        <v>0.2354339301562902</v>
+        <v>0.1711132117018366</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6919258491859637</v>
+        <v>0.6899907784556234</v>
       </c>
       <c r="H13">
-        <v>0.758237565507585</v>
+        <v>0.4181023202633298</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1088916118565741</v>
+        <v>0.05513805307037245</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5026457919605107</v>
+        <v>1.0664090657746</v>
       </c>
       <c r="N13">
-        <v>1.196825665711593</v>
+        <v>0.6043813992567735</v>
       </c>
       <c r="O13">
-        <v>2.897499558329343</v>
+        <v>2.289394312935315</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.132922340913694</v>
+        <v>3.24807548489656</v>
       </c>
       <c r="C14">
-        <v>0.2033025816008944</v>
+        <v>0.6642838870489243</v>
       </c>
       <c r="D14">
-        <v>0.6282174961147575</v>
+        <v>0.5519354991905061</v>
       </c>
       <c r="E14">
-        <v>0.2351824318320794</v>
+        <v>0.1690545745719874</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6906500879556887</v>
+        <v>0.6801014770917106</v>
       </c>
       <c r="H14">
-        <v>0.7584004024689506</v>
+        <v>0.4146831607947519</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1089307538671065</v>
+        <v>0.05474610203323849</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4975643068693358</v>
+        <v>1.04752333013468</v>
       </c>
       <c r="N14">
-        <v>1.198690607464769</v>
+        <v>0.6083319387535298</v>
       </c>
       <c r="O14">
-        <v>2.895081276580129</v>
+        <v>2.261194322111379</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.122443520938475</v>
+        <v>3.212114092378442</v>
       </c>
       <c r="C15">
-        <v>0.2011516637954571</v>
+        <v>0.6572804391871898</v>
       </c>
       <c r="D15">
-        <v>0.6274062101594211</v>
+        <v>0.5471932567087379</v>
       </c>
       <c r="E15">
-        <v>0.2350305185265391</v>
+        <v>0.1677999007074895</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6898783506003241</v>
+        <v>0.6740834213149896</v>
       </c>
       <c r="H15">
-        <v>0.7585076092103833</v>
+        <v>0.4126100524369463</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1089556930413558</v>
+        <v>0.05450860530134705</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4944541769946866</v>
+        <v>1.035970846927619</v>
       </c>
       <c r="N15">
-        <v>1.199842557899778</v>
+        <v>0.6107790259672683</v>
       </c>
       <c r="O15">
-        <v>2.893635984568448</v>
+        <v>2.244048820896779</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.06240511161559</v>
+        <v>3.006470889002856</v>
       </c>
       <c r="C16">
-        <v>0.1888126696821359</v>
+        <v>0.6171944682920696</v>
       </c>
       <c r="D16">
-        <v>0.6228438168858474</v>
+        <v>0.5202800158307355</v>
       </c>
       <c r="E16">
-        <v>0.2341927267268709</v>
+        <v>0.1607033487982932</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6856044090774418</v>
+        <v>0.6401794047578591</v>
       </c>
       <c r="H16">
-        <v>0.7592363730052085</v>
+        <v>0.4010455866654752</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1091133772291784</v>
+        <v>0.0531860736018146</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4766687137572561</v>
+        <v>0.9699951979565427</v>
       </c>
       <c r="N16">
-        <v>1.206591367313543</v>
+        <v>0.6252114469348342</v>
       </c>
       <c r="O16">
-        <v>2.885904672133989</v>
+        <v>2.147688495401525</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.025584686527054</v>
+        <v>2.880675341419021</v>
       </c>
       <c r="C17">
-        <v>0.1812317517316728</v>
+        <v>0.5926410549749619</v>
       </c>
       <c r="D17">
-        <v>0.6201224232980849</v>
+        <v>0.5039942008843354</v>
       </c>
       <c r="E17">
-        <v>0.2337080162171681</v>
+        <v>0.1564299774966642</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.683114894656029</v>
+        <v>0.619878122489169</v>
       </c>
       <c r="H17">
-        <v>0.7597855280345129</v>
+        <v>0.3942226405315097</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1092232880136734</v>
+        <v>0.05240785207238119</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4657915747336361</v>
+        <v>0.9297113682053819</v>
       </c>
       <c r="N17">
-        <v>1.210863116947777</v>
+        <v>0.6344210528305823</v>
       </c>
       <c r="O17">
-        <v>2.881653131290506</v>
+        <v>2.090195142802912</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.004411045850361</v>
+        <v>2.808441771383286</v>
       </c>
       <c r="C18">
-        <v>0.1768673240717646</v>
+        <v>0.5785307309566861</v>
       </c>
       <c r="D18">
-        <v>0.6185856538757548</v>
+        <v>0.4947058007630005</v>
       </c>
       <c r="E18">
-        <v>0.2334399773290379</v>
+        <v>0.1540002326602838</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6817315868409821</v>
+        <v>0.6083755992554813</v>
       </c>
       <c r="H18">
-        <v>0.7601389007636499</v>
+        <v>0.3903940956312084</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1092913477771518</v>
+        <v>0.05197193873856776</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4595478090476277</v>
+        <v>0.9066062504849697</v>
       </c>
       <c r="N18">
-        <v>1.213368469252771</v>
+        <v>0.6398453279791028</v>
       </c>
       <c r="O18">
-        <v>2.879388189907814</v>
+        <v>2.057695405292634</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9972428228508079</v>
+        <v>2.784004391665121</v>
       </c>
       <c r="C19">
-        <v>0.1753889104659265</v>
+        <v>0.573755136715647</v>
       </c>
       <c r="D19">
-        <v>0.6180702284347888</v>
+        <v>0.4915740893730174</v>
       </c>
       <c r="E19">
-        <v>0.2333510714486877</v>
+        <v>0.1531822870480326</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6812715626264634</v>
+        <v>0.6045101670157749</v>
       </c>
       <c r="H19">
-        <v>0.7602649895010671</v>
+        <v>0.3891139124904583</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1093152232237848</v>
+        <v>0.05182631209769895</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4574359301323909</v>
+        <v>0.8987939906884179</v>
       </c>
       <c r="N19">
-        <v>1.214225043741024</v>
+        <v>0.6417034006770663</v>
       </c>
       <c r="O19">
-        <v>2.878652295462729</v>
+        <v>2.046786806048004</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.029503827100712</v>
+        <v>2.89405374498142</v>
       </c>
       <c r="C20">
-        <v>0.1820391780028672</v>
+        <v>0.5952535100553007</v>
       </c>
       <c r="D20">
-        <v>0.6204091708467843</v>
+        <v>0.5057196181032566</v>
       </c>
       <c r="E20">
-        <v>0.2337585016242478</v>
+        <v>0.1568819401751185</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6833748768374051</v>
+        <v>0.6220210039749645</v>
       </c>
       <c r="H20">
-        <v>0.759723187025088</v>
+        <v>0.394938949487738</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1092110866872851</v>
+        <v>0.05248947392405512</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4669481757899163</v>
+        <v>0.933992809994983</v>
       </c>
       <c r="N20">
-        <v>1.21040337740834</v>
+        <v>0.6334274351179019</v>
       </c>
       <c r="O20">
-        <v>2.882087037734181</v>
+        <v>2.096255938769104</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.137947409300637</v>
+        <v>3.265328113897453</v>
       </c>
       <c r="C21">
-        <v>0.2043337729876953</v>
+        <v>0.6676431478857126</v>
       </c>
       <c r="D21">
-        <v>0.6286080634743314</v>
+        <v>0.5542143199158716</v>
       </c>
       <c r="E21">
-        <v>0.2352558577339963</v>
+        <v>0.1696579255743913</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6910227874472383</v>
+        <v>0.6829979363100591</v>
       </c>
       <c r="H21">
-        <v>0.7583510177225321</v>
+        <v>0.4156830039405008</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1089190561023656</v>
+        <v>0.05486068612994544</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4990563571242745</v>
+        <v>1.053067253975911</v>
       </c>
       <c r="N21">
-        <v>1.198140824118973</v>
+        <v>0.6071658656175885</v>
       </c>
       <c r="O21">
-        <v>2.895784086513657</v>
+        <v>2.269450549030012</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.208853508216805</v>
+        <v>3.509304921515536</v>
       </c>
       <c r="C22">
-        <v>0.2188664069418564</v>
+        <v>0.7151022021492111</v>
       </c>
       <c r="D22">
-        <v>0.6342197453884921</v>
+        <v>0.5866920005777843</v>
       </c>
       <c r="E22">
-        <v>0.2363301136789246</v>
+        <v>0.1782863287245391</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.69645525748426</v>
+        <v>0.7245908318622156</v>
       </c>
       <c r="H22">
-        <v>0.7577883104838037</v>
+        <v>0.4301796984308055</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1087713229542331</v>
+        <v>0.05652481129906306</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5201497941201012</v>
+        <v>1.131573316128026</v>
       </c>
       <c r="N22">
-        <v>1.190557099018257</v>
+        <v>0.5912130329298151</v>
       </c>
       <c r="O22">
-        <v>2.906345685766155</v>
+        <v>2.388290812858997</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.171007055629843</v>
+        <v>3.378955600131633</v>
       </c>
       <c r="C23">
-        <v>0.2111136466679682</v>
+        <v>0.6897568036835651</v>
       </c>
       <c r="D23">
-        <v>0.6312015432050089</v>
+        <v>0.5692821922191627</v>
       </c>
       <c r="E23">
-        <v>0.235748016840958</v>
+        <v>0.1736543030360806</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6935160572231212</v>
+        <v>0.7022230312246052</v>
       </c>
       <c r="H23">
-        <v>0.7580580674632103</v>
+        <v>0.4223522470824008</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.108846224485788</v>
+        <v>0.05562565071178938</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5088819743581681</v>
+        <v>1.089605256808021</v>
       </c>
       <c r="N23">
-        <v>1.194565280040223</v>
+        <v>0.5996126317343808</v>
       </c>
       <c r="O23">
-        <v>2.900561318175761</v>
+        <v>2.324317320877157</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.027731999405148</v>
+        <v>2.888005097458972</v>
       </c>
       <c r="C24">
-        <v>0.1816741594348628</v>
+        <v>0.5940724016014656</v>
       </c>
       <c r="D24">
-        <v>0.6202794456924892</v>
+        <v>0.5049393257156112</v>
       </c>
       <c r="E24">
-        <v>0.233735644066666</v>
+        <v>0.1566775238187716</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6832571895554764</v>
+        <v>0.6210516830448825</v>
       </c>
       <c r="H24">
-        <v>0.759751254096841</v>
+        <v>0.3946148141668147</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.109216587735915</v>
+        <v>0.05245253698585017</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4664252463808012</v>
+        <v>0.9320570012447789</v>
       </c>
       <c r="N24">
-        <v>1.210611071565459</v>
+        <v>0.6338762470138377</v>
       </c>
       <c r="O24">
-        <v>2.88189031006857</v>
+        <v>2.093514133738466</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8733626994046517</v>
+        <v>2.362924785198857</v>
       </c>
       <c r="C25">
-        <v>0.1497637225193671</v>
+        <v>0.491306271323225</v>
       </c>
       <c r="D25">
-        <v>0.6095882562475907</v>
+        <v>0.4385056542900543</v>
       </c>
       <c r="E25">
-        <v>0.2319761649496108</v>
+        <v>0.1394291608551086</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.674048318034778</v>
+        <v>0.5400624758086821</v>
       </c>
       <c r="H25">
-        <v>0.7630118013194789</v>
+        <v>0.3683167484225436</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1098011970450123</v>
+        <v>0.04947202806831541</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4211069543555226</v>
+        <v>0.7645518337199704</v>
       </c>
       <c r="N25">
-        <v>1.229767852702665</v>
+        <v>0.6756572879825526</v>
       </c>
       <c r="O25">
-        <v>2.868646868223635</v>
+        <v>1.866017311776545</v>
       </c>
     </row>
   </sheetData>
